--- a/outcome/appendix/forecast/Infectious diarrhea.xlsx
+++ b/outcome/appendix/forecast/Infectious diarrhea.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>137832.90058117</v>
+        <v>137832.900581178</v>
       </c>
       <c r="C2" t="n">
-        <v>120037.551144965</v>
+        <v>120037.551144974</v>
       </c>
       <c r="D2" t="n">
-        <v>110820.098954942</v>
+        <v>110820.098954952</v>
       </c>
       <c r="E2" t="n">
-        <v>156095.7048897</v>
+        <v>156095.704889708</v>
       </c>
       <c r="F2" t="n">
-        <v>165940.859505184</v>
+        <v>165940.859505192</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>121473</v>
       </c>
       <c r="I2" t="n">
-        <v>16359.9005811698</v>
+        <v>16359.9005811783</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>123278.749701162</v>
+        <v>123278.749701163</v>
       </c>
       <c r="C3" t="n">
-        <v>101813.302093715</v>
+        <v>101813.302093719</v>
       </c>
       <c r="D3" t="n">
-        <v>90792.6865298922</v>
+        <v>90792.6865298983</v>
       </c>
       <c r="E3" t="n">
-        <v>145513.063011513</v>
+        <v>145513.06301151</v>
       </c>
       <c r="F3" t="n">
-        <v>157568.644430647</v>
+        <v>157568.644430642</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>45510</v>
       </c>
       <c r="I3" t="n">
-        <v>77768.7497011618</v>
+        <v>77768.7497011627</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>113152.310616091</v>
+        <v>113152.310616093</v>
       </c>
       <c r="C4" t="n">
-        <v>91634.5814757656</v>
+        <v>91634.581475774</v>
       </c>
       <c r="D4" t="n">
-        <v>80623.960252964</v>
+        <v>80623.9602529753</v>
       </c>
       <c r="E4" t="n">
-        <v>135515.251388706</v>
+        <v>135515.251388702</v>
       </c>
       <c r="F4" t="n">
-        <v>147664.82605933</v>
+        <v>147664.826059322</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>48491</v>
       </c>
       <c r="I4" t="n">
-        <v>64661.3106160908</v>
+        <v>64661.3106160933</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>88766.3646955456</v>
+        <v>88766.364695549</v>
       </c>
       <c r="C5" t="n">
-        <v>68352.3368071691</v>
+        <v>68352.336807178</v>
       </c>
       <c r="D5" t="n">
-        <v>57997.6772301999</v>
+        <v>57997.6772302114</v>
       </c>
       <c r="E5" t="n">
-        <v>110160.402638895</v>
+        <v>110160.402638892</v>
       </c>
       <c r="F5" t="n">
-        <v>121839.816953857</v>
+        <v>121839.81695385</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>58544</v>
       </c>
       <c r="I5" t="n">
-        <v>30222.3646955456</v>
+        <v>30222.364695549</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>99181.4265155204</v>
+        <v>99181.4265155246</v>
       </c>
       <c r="C6" t="n">
-        <v>78267.4977167897</v>
+        <v>78267.4977167995</v>
       </c>
       <c r="D6" t="n">
-        <v>67613.5711429386</v>
+        <v>67613.5711429511</v>
       </c>
       <c r="E6" t="n">
-        <v>121011.215760922</v>
+        <v>121011.21576092</v>
       </c>
       <c r="F6" t="n">
-        <v>132901.205709802</v>
+        <v>132901.205709796</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>87151</v>
       </c>
       <c r="I6" t="n">
-        <v>12030.4265155204</v>
+        <v>12030.4265155246</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>117972.449235229</v>
+        <v>117972.449235233</v>
       </c>
       <c r="C7" t="n">
-        <v>96261.2108057437</v>
+        <v>96261.2108057538</v>
       </c>
       <c r="D7" t="n">
-        <v>85137.2476428177</v>
+        <v>85137.2476428306</v>
       </c>
       <c r="E7" t="n">
-        <v>140507.713787944</v>
+        <v>140507.713787942</v>
       </c>
       <c r="F7" t="n">
-        <v>152741.613839548</v>
+        <v>152741.613839543</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>114085</v>
       </c>
       <c r="I7" t="n">
-        <v>3887.44923522913</v>
+        <v>3887.44923523325</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>135610.256979056</v>
+        <v>135610.25697906</v>
       </c>
       <c r="C8" t="n">
-        <v>113243.987082583</v>
+        <v>113243.987082593</v>
       </c>
       <c r="D8" t="n">
-        <v>101739.425154427</v>
+        <v>101739.42515444</v>
       </c>
       <c r="E8" t="n">
-        <v>158733.626680659</v>
+        <v>158733.626680656</v>
       </c>
       <c r="F8" t="n">
-        <v>171256.740844316</v>
+        <v>171256.740844309</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>109407</v>
       </c>
       <c r="I8" t="n">
-        <v>26203.2569790564</v>
+        <v>26203.2569790602</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>134142.060866989</v>
+        <v>134142.060866994</v>
       </c>
       <c r="C9" t="n">
-        <v>111827.460916473</v>
+        <v>111827.460916484</v>
       </c>
       <c r="D9" t="n">
-        <v>100352.761301919</v>
+        <v>100352.761301933</v>
       </c>
       <c r="E9" t="n">
-        <v>157218.784568045</v>
+        <v>157218.784568043</v>
       </c>
       <c r="F9" t="n">
-        <v>169718.882486</v>
+        <v>169718.882485994</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>109407</v>
       </c>
       <c r="I9" t="n">
-        <v>24735.0608669892</v>
+        <v>24735.0608669938</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>108958.097458678</v>
+        <v>108958.097458683</v>
       </c>
       <c r="C10" t="n">
-        <v>87614.5773559002</v>
+        <v>87614.5773559106</v>
       </c>
       <c r="D10" t="n">
-        <v>76706.3812833176</v>
+        <v>76706.3812833307</v>
       </c>
       <c r="E10" t="n">
-        <v>131166.489914063</v>
+        <v>131166.489914062</v>
       </c>
       <c r="F10" t="n">
-        <v>143240.608893924</v>
+        <v>143240.608893918</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>97075</v>
       </c>
       <c r="I10" t="n">
-        <v>11883.0974586783</v>
+        <v>11883.0974586828</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>99338.8554016457</v>
+        <v>99338.8554016506</v>
       </c>
       <c r="C11" t="n">
-        <v>78417.7256760642</v>
+        <v>78417.7256760746</v>
       </c>
       <c r="D11" t="n">
-        <v>67759.5159342853</v>
+        <v>67759.5159342984</v>
       </c>
       <c r="E11" t="n">
-        <v>121174.960384702</v>
+        <v>121174.960384701</v>
       </c>
       <c r="F11" t="n">
-        <v>133068.013256014</v>
+        <v>133068.01325601</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>79196</v>
       </c>
       <c r="I11" t="n">
-        <v>20142.8554016457</v>
+        <v>20142.8554016506</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>100627.508986246</v>
+        <v>100627.508986251</v>
       </c>
       <c r="C12" t="n">
-        <v>79647.8027775188</v>
+        <v>79647.8027775301</v>
       </c>
       <c r="D12" t="n">
-        <v>68954.778838107</v>
+        <v>68954.778838121</v>
       </c>
       <c r="E12" t="n">
         <v>122515.029286507</v>
       </c>
       <c r="F12" t="n">
-        <v>134433.028011954</v>
+        <v>134433.02801195</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>83209</v>
       </c>
       <c r="I12" t="n">
-        <v>17418.5089862457</v>
+        <v>17418.5089862514</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>134884.743142141</v>
+        <v>134884.743142147</v>
       </c>
       <c r="C13" t="n">
-        <v>112543.950077269</v>
+        <v>112543.950077281</v>
       </c>
       <c r="D13" t="n">
-        <v>101054.108797193</v>
+        <v>101054.108797208</v>
       </c>
       <c r="E13" t="n">
         <v>157985.107316356</v>
       </c>
       <c r="F13" t="n">
-        <v>170496.868182226</v>
+        <v>170496.868182221</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>108084</v>
       </c>
       <c r="I13" t="n">
-        <v>26800.7431421415</v>
+        <v>26800.7431421471</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>146625.320798241</v>
+        <v>146625.320798248</v>
       </c>
       <c r="C14" t="n">
-        <v>122679.062760218</v>
+        <v>122679.062760231</v>
       </c>
       <c r="D14" t="n">
-        <v>110357.803193328</v>
+        <v>110357.803193345</v>
       </c>
       <c r="E14" t="n">
-        <v>171373.904145343</v>
+        <v>171373.904145344</v>
       </c>
       <c r="F14" t="n">
-        <v>184774.456093457</v>
+        <v>184774.456093455</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>177114</v>
       </c>
       <c r="I14" t="n">
-        <v>-30488.6792017592</v>
+        <v>-30488.6792017515</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>129094.100163772</v>
+        <v>129094.100163775</v>
       </c>
       <c r="C15" t="n">
-        <v>105185.752741659</v>
+        <v>105185.75274167</v>
       </c>
       <c r="D15" t="n">
-        <v>92939.0626560074</v>
+        <v>92939.062656021</v>
       </c>
       <c r="E15" t="n">
-        <v>153915.876013273</v>
+        <v>153915.87601327</v>
       </c>
       <c r="F15" t="n">
-        <v>167393.022124977</v>
+        <v>167393.022124969</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>144447</v>
       </c>
       <c r="I15" t="n">
-        <v>-15352.8998362284</v>
+        <v>-15352.8998362247</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>118586.403540981</v>
+        <v>118586.403540985</v>
       </c>
       <c r="C16" t="n">
-        <v>95038.3085776602</v>
+        <v>95038.3085776716</v>
       </c>
       <c r="D16" t="n">
-        <v>83010.3350860203</v>
+        <v>83010.335086035</v>
       </c>
       <c r="E16" t="n">
-        <v>143102.464093356</v>
+        <v>143102.464093353</v>
       </c>
       <c r="F16" t="n">
-        <v>156435.595624095</v>
+        <v>156435.595624088</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>141593</v>
       </c>
       <c r="I16" t="n">
-        <v>-23006.5964590193</v>
+        <v>-23006.5964590148</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>93950.80054293</v>
+        <v>93950.8005429352</v>
       </c>
       <c r="C17" t="n">
-        <v>71567.3368392534</v>
+        <v>71567.336839265</v>
       </c>
       <c r="D17" t="n">
-        <v>60235.4376689643</v>
+        <v>60235.437668979</v>
       </c>
       <c r="E17" t="n">
-        <v>117449.999372823</v>
+        <v>117449.999372822</v>
       </c>
       <c r="F17" t="n">
-        <v>130291.245852609</v>
+        <v>130291.245852603</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>110751</v>
       </c>
       <c r="I17" t="n">
-        <v>-16800.19945707</v>
+        <v>-16800.1994570648</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>104478.393299699</v>
+        <v>104478.393299705</v>
       </c>
       <c r="C18" t="n">
-        <v>81568.2815727349</v>
+        <v>81568.2815727475</v>
       </c>
       <c r="D18" t="n">
-        <v>69919.2919736124</v>
+        <v>69919.2919736281</v>
       </c>
       <c r="E18" t="n">
-        <v>128434.169590711</v>
+        <v>128434.16959071</v>
       </c>
       <c r="F18" t="n">
-        <v>141495.37239614</v>
+        <v>141495.372396134</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>112075</v>
       </c>
       <c r="I18" t="n">
-        <v>-7596.606700301</v>
+        <v>-7596.60670029494</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>123450.743828507</v>
+        <v>123450.743828514</v>
       </c>
       <c r="C19" t="n">
-        <v>99697.7908943247</v>
+        <v>99697.7908943377</v>
       </c>
       <c r="D19" t="n">
-        <v>87549.1809342896</v>
+        <v>87549.1809343059</v>
       </c>
       <c r="E19" t="n">
-        <v>148148.255727837</v>
+        <v>148148.255727836</v>
       </c>
       <c r="F19" t="n">
-        <v>161569.894824185</v>
+        <v>161569.894824179</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>117015</v>
       </c>
       <c r="I19" t="n">
-        <v>6435.74382850746</v>
+        <v>6435.74382851357</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>141239.003860118</v>
+        <v>141239.003860124</v>
       </c>
       <c r="C20" t="n">
-        <v>116791.331170967</v>
+        <v>116791.33117098</v>
       </c>
       <c r="D20" t="n">
-        <v>104236.967179191</v>
+        <v>104236.967179208</v>
       </c>
       <c r="E20" t="n">
-        <v>166556.972203178</v>
+        <v>166556.972203176</v>
       </c>
       <c r="F20" t="n">
-        <v>180282.760374476</v>
+        <v>180282.76037447</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>123462</v>
       </c>
       <c r="I20" t="n">
-        <v>17777.0038601184</v>
+        <v>17777.0038601243</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>139758.89583266</v>
+        <v>139758.895832666</v>
       </c>
       <c r="C21" t="n">
-        <v>115366.091093529</v>
+        <v>115366.091093542</v>
       </c>
       <c r="D21" t="n">
-        <v>102843.597537862</v>
+        <v>102843.597537879</v>
       </c>
       <c r="E21" t="n">
-        <v>165027.587716304</v>
+        <v>165027.587716303</v>
       </c>
       <c r="F21" t="n">
-        <v>178729.139042957</v>
+        <v>178729.139042952</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>103609</v>
       </c>
       <c r="I21" t="n">
-        <v>36149.8958326599</v>
+        <v>36149.8958326665</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>114352.49986095</v>
+        <v>114352.499860957</v>
       </c>
       <c r="C22" t="n">
-        <v>90988.6725955094</v>
+        <v>90988.6725955227</v>
       </c>
       <c r="D22" t="n">
-        <v>79069.6315757111</v>
+        <v>79069.6315757275</v>
       </c>
       <c r="E22" t="n">
-        <v>138705.970695869</v>
+        <v>138705.970695868</v>
       </c>
       <c r="F22" t="n">
-        <v>151959.974142443</v>
+        <v>151959.974142438</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>90862</v>
       </c>
       <c r="I22" t="n">
-        <v>23490.4998609501</v>
+        <v>23490.4998609567</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>104637.450054932</v>
+        <v>104637.450054939</v>
       </c>
       <c r="C23" t="n">
-        <v>81719.7413642325</v>
+        <v>81719.7413642458</v>
       </c>
       <c r="D23" t="n">
-        <v>70066.2073846946</v>
+        <v>70066.207384711</v>
       </c>
       <c r="E23" t="n">
         <v>128599.853203604</v>
       </c>
       <c r="F23" t="n">
-        <v>141664.2597024</v>
+        <v>141664.259702395</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>74343</v>
       </c>
       <c r="I23" t="n">
-        <v>30294.4500549322</v>
+        <v>30294.4500549389</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>105939.352730523</v>
+        <v>105939.35273053</v>
       </c>
       <c r="C24" t="n">
-        <v>82959.8350592953</v>
+        <v>82959.8350593095</v>
       </c>
       <c r="D24" t="n">
-        <v>71269.3576029866</v>
+        <v>71269.3576030038</v>
       </c>
       <c r="E24" t="n">
         <v>129955.713519211</v>
       </c>
       <c r="F24" t="n">
-        <v>143046.216873398</v>
+        <v>143046.216873394</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>64241</v>
       </c>
       <c r="I24" t="n">
-        <v>41698.3527305227</v>
+        <v>41698.3527305304</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>140507.616552445</v>
+        <v>140507.616552453</v>
       </c>
       <c r="C25" t="n">
-        <v>116086.998425281</v>
+        <v>116086.998425296</v>
       </c>
       <c r="D25" t="n">
-        <v>103548.345426198</v>
+        <v>103548.345426216</v>
       </c>
       <c r="E25" t="n">
         <v>165801.281188531</v>
       </c>
       <c r="F25" t="n">
-        <v>179515.113560537</v>
+        <v>179515.113560533</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>82512</v>
       </c>
       <c r="I25" t="n">
-        <v>57995.616552445</v>
+        <v>57995.6165524527</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>152340.319268207</v>
+        <v>152340.319268217</v>
       </c>
       <c r="C26" t="n">
-        <v>126373.279529688</v>
+        <v>126373.279529705</v>
       </c>
       <c r="D26" t="n">
-        <v>113031.507574165</v>
+        <v>113031.507574185</v>
       </c>
       <c r="E26" t="n">
-        <v>179217.038067871</v>
+        <v>179217.038067873</v>
       </c>
       <c r="F26" t="n">
-        <v>193783.042861717</v>
+        <v>193783.042861715</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>80364</v>
       </c>
       <c r="I26" t="n">
-        <v>71976.319268207</v>
+        <v>71976.3192682168</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>134669.175028279</v>
+        <v>134669.175028284</v>
       </c>
       <c r="C27" t="n">
-        <v>108813.017578377</v>
+        <v>108813.01757839</v>
       </c>
       <c r="D27" t="n">
-        <v>95587.555831027</v>
+        <v>95587.5558310439</v>
       </c>
       <c r="E27" t="n">
-        <v>161551.223426894</v>
+        <v>161551.223426892</v>
       </c>
       <c r="F27" t="n">
-        <v>176159.289149425</v>
+        <v>176159.289149418</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>92535</v>
       </c>
       <c r="I27" t="n">
-        <v>42134.1750282787</v>
+        <v>42134.1750282844</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>124070.225092844</v>
+        <v>124070.22509285</v>
       </c>
       <c r="C28" t="n">
-        <v>98599.4648272873</v>
+        <v>98599.4648273014</v>
       </c>
       <c r="D28" t="n">
-        <v>85608.343814946</v>
+        <v>85608.3438149639</v>
       </c>
       <c r="E28" t="n">
-        <v>150625.323332401</v>
+        <v>150625.323332399</v>
       </c>
       <c r="F28" t="n">
-        <v>165079.252695267</v>
+        <v>165079.252695261</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>122555</v>
       </c>
       <c r="I28" t="n">
-        <v>1515.22509284379</v>
+        <v>1515.22509285028</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>99192.4834286709</v>
+        <v>99192.483428678</v>
       </c>
       <c r="C29" t="n">
-        <v>74937.2702922661</v>
+        <v>74937.2702922804</v>
       </c>
       <c r="D29" t="n">
-        <v>62675.8959557917</v>
+        <v>62675.8959558095</v>
       </c>
       <c r="E29" t="n">
-        <v>124690.76295948</v>
+        <v>124690.762959479</v>
       </c>
       <c r="F29" t="n">
-        <v>138634.723190877</v>
+        <v>138634.723190871</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>74986</v>
       </c>
       <c r="I29" t="n">
-        <v>24206.4834286709</v>
+        <v>24206.483428678</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>109829.046393912</v>
+        <v>109829.04639392</v>
       </c>
       <c r="C30" t="n">
-        <v>85024.9988954957</v>
+        <v>85024.998895511</v>
       </c>
       <c r="D30" t="n">
-        <v>72431.6929352644</v>
+        <v>72431.6929352833</v>
       </c>
       <c r="E30" t="n">
         <v>135801.143876703</v>
       </c>
       <c r="F30" t="n">
-        <v>149972.824864578</v>
+        <v>149972.824864573</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>82369</v>
       </c>
       <c r="I30" t="n">
-        <v>27460.046393912</v>
+        <v>27460.04639392</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>128977.573057989</v>
+        <v>128977.573057997</v>
       </c>
       <c r="C31" t="n">
-        <v>103292.33840803</v>
+        <v>103292.338408046</v>
       </c>
       <c r="D31" t="n">
-        <v>90174.3635608428</v>
+        <v>90174.3635608623</v>
       </c>
       <c r="E31" t="n">
         <v>155721.819868779</v>
       </c>
       <c r="F31" t="n">
-        <v>170267.775871023</v>
+        <v>170267.775871018</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>95012</v>
       </c>
       <c r="I31" t="n">
-        <v>33965.5730579888</v>
+        <v>33965.5730579969</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>146912.49229941</v>
+        <v>146912.492299417</v>
       </c>
       <c r="C32" t="n">
-        <v>120498.650913728</v>
+        <v>120498.650913743</v>
       </c>
       <c r="D32" t="n">
-        <v>106953.309965643</v>
+        <v>106953.309965663</v>
       </c>
       <c r="E32" t="n">
-        <v>174304.667166299</v>
+        <v>174304.667166298</v>
       </c>
       <c r="F32" t="n">
-        <v>189167.419585631</v>
+        <v>189167.419585625</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>103468</v>
       </c>
       <c r="I32" t="n">
-        <v>43444.4922994096</v>
+        <v>43444.4922994175</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>145420.758190639</v>
+        <v>145420.758190647</v>
       </c>
       <c r="C33" t="n">
-        <v>119064.528784841</v>
+        <v>119064.528784858</v>
       </c>
       <c r="D33" t="n">
-        <v>105552.792407806</v>
+        <v>105552.792407826</v>
       </c>
       <c r="E33" t="n">
         <v>172761.412752013</v>
       </c>
       <c r="F33" t="n">
-        <v>187598.890343824</v>
+        <v>187598.89034382</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>100107</v>
       </c>
       <c r="I33" t="n">
-        <v>45313.7581906387</v>
+        <v>45313.7581906474</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>119797.736001844</v>
+        <v>119797.736001853</v>
       </c>
       <c r="C34" t="n">
-        <v>94519.7358895235</v>
+        <v>94519.7358895395</v>
       </c>
       <c r="D34" t="n">
-        <v>81643.0723393948</v>
+        <v>81643.0723394144</v>
       </c>
       <c r="E34" t="n">
         <v>146183.485178944</v>
       </c>
       <c r="F34" t="n">
-        <v>160555.20539766</v>
+        <v>160555.205397655</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>76490</v>
       </c>
       <c r="I34" t="n">
-        <v>43307.736001844</v>
+        <v>43307.7360018525</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>109989.681662916</v>
+        <v>109989.681662925</v>
       </c>
       <c r="C35" t="n">
-        <v>85177.7065912648</v>
+        <v>85177.7065912808</v>
       </c>
       <c r="D35" t="n">
-        <v>72579.6371835858</v>
+        <v>72579.6371836054</v>
       </c>
       <c r="E35" t="n">
         <v>135968.664950011</v>
       </c>
       <c r="F35" t="n">
-        <v>150143.666698155</v>
+        <v>150143.666698151</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>61743</v>
       </c>
       <c r="I35" t="n">
-        <v>48246.6816629158</v>
+        <v>48246.6816629245</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>111304.433928475</v>
+        <v>111304.433928484</v>
       </c>
       <c r="C36" t="n">
-        <v>86427.9492900629</v>
+        <v>86427.9492900798</v>
       </c>
       <c r="D36" t="n">
-        <v>73791.1491327481</v>
+        <v>73791.1491327686</v>
       </c>
       <c r="E36" t="n">
-        <v>137339.492268119</v>
+        <v>137339.492268121</v>
       </c>
       <c r="F36" t="n">
-        <v>151541.548628368</v>
+        <v>151541.548628365</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>50972</v>
       </c>
       <c r="I36" t="n">
-        <v>60332.4339284747</v>
+        <v>60332.4339284844</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>146175.372160333</v>
+        <v>146175.372160343</v>
       </c>
       <c r="C37" t="n">
-        <v>119789.939392513</v>
+        <v>119789.939392531</v>
       </c>
       <c r="D37" t="n">
-        <v>106261.164848366</v>
+        <v>106261.164848387</v>
       </c>
       <c r="E37" t="n">
-        <v>173542.135715004</v>
+        <v>173542.135715006</v>
       </c>
       <c r="F37" t="n">
-        <v>188392.419876154</v>
+        <v>188392.419876151</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>29010</v>
       </c>
       <c r="I37" t="n">
-        <v>117165.372160333</v>
+        <v>117165.372160343</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>158098.059022291</v>
+        <v>158098.059022302</v>
       </c>
       <c r="C38" t="n">
-        <v>130211.739201196</v>
+        <v>130211.739201216</v>
       </c>
       <c r="D38" t="n">
-        <v>115901.229439672</v>
+        <v>115901.229439696</v>
       </c>
       <c r="E38" t="n">
-        <v>186996.804543523</v>
+        <v>186996.804543526</v>
       </c>
       <c r="F38" t="n">
-        <v>202670.331981399</v>
+        <v>202670.331981398</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>42950</v>
       </c>
       <c r="I38" t="n">
-        <v>115148.059022291</v>
+        <v>115148.059022302</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>140290.298461856</v>
+        <v>140290.298461864</v>
       </c>
       <c r="C39" t="n">
-        <v>112575.769937782</v>
+        <v>112575.769937798</v>
       </c>
       <c r="D39" t="n">
-        <v>98416.5429143078</v>
+        <v>98416.5429143279</v>
       </c>
       <c r="E39" t="n">
-        <v>169137.892087634</v>
+        <v>169137.892087633</v>
       </c>
       <c r="F39" t="n">
-        <v>184824.774529458</v>
+        <v>184824.774529452</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>96292</v>
       </c>
       <c r="I39" t="n">
-        <v>43998.2984618558</v>
+        <v>43998.2984618637</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>129602.434636103</v>
+        <v>129602.434636111</v>
       </c>
       <c r="C40" t="n">
-        <v>102294.667632625</v>
+        <v>102294.667632641</v>
       </c>
       <c r="D40" t="n">
-        <v>88383.1117565136</v>
+        <v>88383.1117565346</v>
       </c>
       <c r="E40" t="n">
         <v>158105.094676469</v>
       </c>
       <c r="F40" t="n">
-        <v>173629.281242197</v>
+        <v>173629.281242191</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>122646</v>
       </c>
       <c r="I40" t="n">
-        <v>6956.43463610277</v>
+        <v>6956.43463611127</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>104489.564611752</v>
+        <v>104489.564611761</v>
       </c>
       <c r="C41" t="n">
-        <v>78440.3249438846</v>
+        <v>78440.3249439016</v>
       </c>
       <c r="D41" t="n">
-        <v>65286.9928422012</v>
+        <v>65286.9928422219</v>
       </c>
       <c r="E41" t="n">
         <v>131901.688965636</v>
       </c>
       <c r="F41" t="n">
-        <v>146900.636904193</v>
+        <v>146900.636904188</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>103060</v>
       </c>
       <c r="I41" t="n">
-        <v>1429.5646117523</v>
+        <v>1429.56461176142</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>115231.788890656</v>
+        <v>115231.788890666</v>
       </c>
       <c r="C42" t="n">
-        <v>88615.1267057978</v>
+        <v>88615.126705816</v>
       </c>
       <c r="D42" t="n">
-        <v>75117.417830704</v>
+        <v>75117.417830726</v>
       </c>
       <c r="E42" t="n">
-        <v>143132.18794342</v>
+        <v>143132.187943421</v>
       </c>
       <c r="F42" t="n">
-        <v>158365.376844622</v>
+        <v>158365.376844618</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>115898</v>
       </c>
       <c r="I42" t="n">
-        <v>-666.211109344047</v>
+        <v>-666.21110933405</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>134551.668768435</v>
+        <v>134551.668768445</v>
       </c>
       <c r="C43" t="n">
-        <v>107021.195627833</v>
+        <v>107021.195627852</v>
       </c>
       <c r="D43" t="n">
-        <v>92977.4442492022</v>
+        <v>92977.4442492249</v>
       </c>
       <c r="E43" t="n">
-        <v>163250.049416352</v>
+        <v>163250.049416353</v>
       </c>
       <c r="F43" t="n">
-        <v>178869.264717238</v>
+        <v>178869.264717234</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>108442</v>
       </c>
       <c r="I43" t="n">
-        <v>26109.6687684351</v>
+        <v>26109.6687684453</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>152629.669712452</v>
+        <v>152629.669712462</v>
       </c>
       <c r="C44" t="n">
-        <v>124341.360307598</v>
+        <v>124341.360307617</v>
       </c>
       <c r="D44" t="n">
-        <v>109851.521388458</v>
+        <v>109851.521388481</v>
       </c>
       <c r="E44" t="n">
-        <v>181999.592972452</v>
+        <v>181999.592972453</v>
       </c>
       <c r="F44" t="n">
-        <v>197946.459936479</v>
+        <v>197946.459936474</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>119375</v>
       </c>
       <c r="I44" t="n">
-        <v>33254.6697124519</v>
+        <v>33254.669712462</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>151126.579884586</v>
+        <v>151126.579884597</v>
       </c>
       <c r="C45" t="n">
-        <v>122898.261003632</v>
+        <v>122898.261003652</v>
       </c>
       <c r="D45" t="n">
-        <v>108443.536777569</v>
+        <v>108443.536777592</v>
       </c>
       <c r="E45" t="n">
-        <v>180443.045545539</v>
+        <v>180443.045545541</v>
       </c>
       <c r="F45" t="n">
-        <v>196363.743215928</v>
+        <v>196363.743215924</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>125319</v>
       </c>
       <c r="I45" t="n">
-        <v>25807.579884586</v>
+        <v>25807.5798845968</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>125292.396171364</v>
+        <v>125292.396171375</v>
       </c>
       <c r="C46" t="n">
-        <v>98184.6325554414</v>
+        <v>98184.6325554602</v>
       </c>
       <c r="D46" t="n">
-        <v>84392.2619866136</v>
+        <v>84392.2619866364</v>
       </c>
       <c r="E46" t="n">
-        <v>153619.954044587</v>
+        <v>153619.954044589</v>
       </c>
       <c r="F46" t="n">
-        <v>169059.310390778</v>
+        <v>169059.310390775</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>102559</v>
       </c>
       <c r="I46" t="n">
-        <v>22733.396171364</v>
+        <v>22733.3961713745</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>115393.956666581</v>
+        <v>115393.956666591</v>
       </c>
       <c r="C47" t="n">
-        <v>88769.0881254948</v>
+        <v>88769.0881255136</v>
       </c>
       <c r="D47" t="n">
-        <v>75266.4307266426</v>
+        <v>75266.4307266652</v>
       </c>
       <c r="E47" t="n">
-        <v>143301.459807619</v>
+        <v>143301.459807621</v>
       </c>
       <c r="F47" t="n">
-        <v>158538.068221599</v>
+        <v>158538.068221596</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>90744</v>
       </c>
       <c r="I47" t="n">
-        <v>24649.9566665807</v>
+        <v>24649.9566665914</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>116721.185982585</v>
+        <v>116721.185982597</v>
       </c>
       <c r="C48" t="n">
-        <v>90029.5288309297</v>
+        <v>90029.5288309494</v>
       </c>
       <c r="D48" t="n">
-        <v>76486.6293633994</v>
+        <v>76486.6293634229</v>
       </c>
       <c r="E48" t="n">
-        <v>144686.550265108</v>
+        <v>144686.550265111</v>
       </c>
       <c r="F48" t="n">
-        <v>159951.021673743</v>
+        <v>159951.021673741</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>73835</v>
       </c>
       <c r="I48" t="n">
-        <v>42886.1859825852</v>
+        <v>42886.1859825968</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>151886.949784339</v>
+        <v>151886.949784351</v>
       </c>
       <c r="C49" t="n">
-        <v>123628.22295121</v>
+        <v>123628.22295123</v>
       </c>
       <c r="D49" t="n">
-        <v>109155.695512715</v>
+        <v>109155.69551274</v>
       </c>
       <c r="E49" t="n">
-        <v>181230.505261513</v>
+        <v>181230.505261515</v>
       </c>
       <c r="F49" t="n">
-        <v>197164.46228429</v>
+        <v>197164.462284287</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>67461</v>
       </c>
       <c r="I49" t="n">
-        <v>84425.9497843389</v>
+        <v>84425.9497843508</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/Infectious diarrhea.xlsx
+++ b/outcome/appendix/forecast/Infectious diarrhea.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>137832.900581178</v>
+        <v>137832.900066578</v>
       </c>
       <c r="C2" t="n">
-        <v>120037.551144974</v>
+        <v>120037.548759694</v>
       </c>
       <c r="D2" t="n">
-        <v>110820.098954952</v>
+        <v>110820.096560868</v>
       </c>
       <c r="E2" t="n">
-        <v>156095.704889708</v>
+        <v>156095.7090259</v>
       </c>
       <c r="F2" t="n">
-        <v>165940.859505192</v>
+        <v>165940.867332562</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>121473</v>
       </c>
       <c r="I2" t="n">
-        <v>16359.9005811783</v>
+        <v>16359.9000665782</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>123278.749701163</v>
+        <v>123278.750171426</v>
       </c>
       <c r="C3" t="n">
-        <v>101813.302093719</v>
+        <v>101813.303305375</v>
       </c>
       <c r="D3" t="n">
-        <v>90792.6865298983</v>
+        <v>90792.6892061117</v>
       </c>
       <c r="E3" t="n">
-        <v>145513.06301151</v>
+        <v>145513.066415748</v>
       </c>
       <c r="F3" t="n">
-        <v>157568.644430642</v>
+        <v>157568.651150329</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>45510</v>
       </c>
       <c r="I3" t="n">
-        <v>77768.7497011627</v>
+        <v>77768.7501714264</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>113152.310616093</v>
+        <v>113152.309535737</v>
       </c>
       <c r="C4" t="n">
-        <v>91634.581475774</v>
+        <v>91634.5825801567</v>
       </c>
       <c r="D4" t="n">
-        <v>80623.9602529753</v>
+        <v>80623.9632662651</v>
       </c>
       <c r="E4" t="n">
-        <v>135515.251388702</v>
+        <v>135515.251415745</v>
       </c>
       <c r="F4" t="n">
-        <v>147664.826059322</v>
+        <v>147664.828379973</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>48491</v>
       </c>
       <c r="I4" t="n">
-        <v>64661.3106160933</v>
+        <v>64661.3095357373</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>88766.364695549</v>
+        <v>88766.3625589021</v>
       </c>
       <c r="C5" t="n">
-        <v>68352.336807178</v>
+        <v>68352.3384633713</v>
       </c>
       <c r="D5" t="n">
-        <v>57997.6772302114</v>
+        <v>57997.6801583543</v>
       </c>
       <c r="E5" t="n">
-        <v>110160.402638892</v>
+        <v>110160.3978245</v>
       </c>
       <c r="F5" t="n">
-        <v>121839.81695385</v>
+        <v>121839.811898761</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>58544</v>
       </c>
       <c r="I5" t="n">
-        <v>30222.364695549</v>
+        <v>30222.3625589021</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>99181.4265155246</v>
+        <v>99181.4239177811</v>
       </c>
       <c r="C6" t="n">
-        <v>78267.4977167995</v>
+        <v>78267.49864361</v>
       </c>
       <c r="D6" t="n">
-        <v>67613.5711429511</v>
+        <v>67613.5739851738</v>
       </c>
       <c r="E6" t="n">
-        <v>121011.21576092</v>
+        <v>121011.211884326</v>
       </c>
       <c r="F6" t="n">
-        <v>132901.205709796</v>
+        <v>132901.202605499</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>87151</v>
       </c>
       <c r="I6" t="n">
-        <v>12030.4265155246</v>
+        <v>12030.4239177811</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>117972.449235233</v>
+        <v>117972.447623346</v>
       </c>
       <c r="C7" t="n">
-        <v>96261.2108057538</v>
+        <v>96261.2107979417</v>
       </c>
       <c r="D7" t="n">
-        <v>85137.2476428306</v>
+        <v>85137.2494202038</v>
       </c>
       <c r="E7" t="n">
-        <v>140507.713787942</v>
+        <v>140507.714144894</v>
       </c>
       <c r="F7" t="n">
-        <v>152741.613839543</v>
+        <v>152741.617016815</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>114085</v>
       </c>
       <c r="I7" t="n">
-        <v>3887.44923523325</v>
+        <v>3887.44762334628</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>135610.25697906</v>
+        <v>135610.256855446</v>
       </c>
       <c r="C8" t="n">
-        <v>113243.987082593</v>
+        <v>113243.985841001</v>
       </c>
       <c r="D8" t="n">
-        <v>101739.42515444</v>
+        <v>101739.424747966</v>
       </c>
       <c r="E8" t="n">
-        <v>158733.626680656</v>
+        <v>158733.632009512</v>
       </c>
       <c r="F8" t="n">
-        <v>171256.740844309</v>
+        <v>171256.751030659</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>109407</v>
       </c>
       <c r="I8" t="n">
-        <v>26203.2569790602</v>
+        <v>26203.256855446</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>134142.060866994</v>
+        <v>134142.06062219</v>
       </c>
       <c r="C9" t="n">
-        <v>111827.460916484</v>
+        <v>111827.459801569</v>
       </c>
       <c r="D9" t="n">
-        <v>100352.761301933</v>
+        <v>100352.761120664</v>
       </c>
       <c r="E9" t="n">
-        <v>157218.784568043</v>
+        <v>157218.78947652</v>
       </c>
       <c r="F9" t="n">
-        <v>169718.882485994</v>
+        <v>169718.892080487</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>109407</v>
       </c>
       <c r="I9" t="n">
-        <v>24735.0608669938</v>
+        <v>24735.0606221901</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>108958.097458683</v>
+        <v>108958.095111914</v>
       </c>
       <c r="C10" t="n">
-        <v>87614.5773559106</v>
+        <v>87614.5777107724</v>
       </c>
       <c r="D10" t="n">
-        <v>76706.3812833307</v>
+        <v>76706.3836426466</v>
       </c>
       <c r="E10" t="n">
-        <v>131166.489914062</v>
+        <v>131166.48788992</v>
       </c>
       <c r="F10" t="n">
-        <v>143240.608893918</v>
+        <v>143240.608681548</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>97075</v>
       </c>
       <c r="I10" t="n">
-        <v>11883.0974586828</v>
+        <v>11883.0951119142</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>99338.8554016506</v>
+        <v>99338.8523466419</v>
       </c>
       <c r="C11" t="n">
-        <v>78417.7256760746</v>
+        <v>78417.7261570182</v>
       </c>
       <c r="D11" t="n">
-        <v>67759.5159342984</v>
+        <v>67759.5183478872</v>
       </c>
       <c r="E11" t="n">
-        <v>121174.960384701</v>
+        <v>121174.95605642</v>
       </c>
       <c r="F11" t="n">
-        <v>133068.01325601</v>
+        <v>133068.009707311</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>79196</v>
       </c>
       <c r="I11" t="n">
-        <v>20142.8554016506</v>
+        <v>20142.8523466419</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>100627.508986251</v>
+        <v>100627.505606049</v>
       </c>
       <c r="C12" t="n">
-        <v>79647.8027775301</v>
+        <v>79647.8028650887</v>
       </c>
       <c r="D12" t="n">
-        <v>68954.778838121</v>
+        <v>68954.7809017403</v>
       </c>
       <c r="E12" t="n">
-        <v>122515.029286507</v>
+        <v>122515.024818395</v>
       </c>
       <c r="F12" t="n">
-        <v>134433.02801195</v>
+        <v>134433.024450317</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>83209</v>
       </c>
       <c r="I12" t="n">
-        <v>17418.5089862514</v>
+        <v>17418.505606049</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>134884.743142147</v>
+        <v>134884.74073268</v>
       </c>
       <c r="C13" t="n">
-        <v>112543.950077281</v>
+        <v>112543.946751045</v>
       </c>
       <c r="D13" t="n">
-        <v>101054.108797208</v>
+        <v>101054.10640041</v>
       </c>
       <c r="E13" t="n">
-        <v>157985.107316356</v>
+        <v>157985.110140635</v>
       </c>
       <c r="F13" t="n">
-        <v>170496.868182221</v>
+        <v>170496.875744336</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>108084</v>
       </c>
       <c r="I13" t="n">
-        <v>26800.7431421471</v>
+        <v>26800.7407326801</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>146625.320798248</v>
+        <v>146625.319828106</v>
       </c>
       <c r="C14" t="n">
-        <v>122679.062760231</v>
+        <v>122679.058514719</v>
       </c>
       <c r="D14" t="n">
-        <v>110357.803193345</v>
+        <v>110357.799022114</v>
       </c>
       <c r="E14" t="n">
-        <v>171373.904145344</v>
+        <v>171373.911652912</v>
       </c>
       <c r="F14" t="n">
-        <v>184774.456093455</v>
+        <v>184774.470387665</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>177114</v>
       </c>
       <c r="I14" t="n">
-        <v>-30488.6792017515</v>
+        <v>-30488.6801718937</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>129094.100163775</v>
+        <v>129094.100081869</v>
       </c>
       <c r="C15" t="n">
-        <v>105185.75274167</v>
+        <v>105185.752486377</v>
       </c>
       <c r="D15" t="n">
-        <v>92939.062656021</v>
+        <v>92939.0637542356</v>
       </c>
       <c r="E15" t="n">
-        <v>153915.87601327</v>
+        <v>153915.88090309</v>
       </c>
       <c r="F15" t="n">
-        <v>167393.022124969</v>
+        <v>167393.031904707</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>144447</v>
       </c>
       <c r="I15" t="n">
-        <v>-15352.8998362247</v>
+        <v>-15352.8999181306</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>118586.403540985</v>
+        <v>118586.402047597</v>
       </c>
       <c r="C16" t="n">
-        <v>95038.3085776716</v>
+        <v>95038.3085977425</v>
       </c>
       <c r="D16" t="n">
-        <v>83010.335086035</v>
+        <v>83010.3369737463</v>
       </c>
       <c r="E16" t="n">
-        <v>143102.464093353</v>
+        <v>143102.465343285</v>
       </c>
       <c r="F16" t="n">
-        <v>156435.595624088</v>
+        <v>156435.600460796</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>141593</v>
       </c>
       <c r="I16" t="n">
-        <v>-23006.5964590148</v>
+        <v>-23006.5979524028</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>93950.8005429352</v>
+        <v>93950.7972295713</v>
       </c>
       <c r="C17" t="n">
-        <v>71567.336839265</v>
+        <v>71567.3373938161</v>
       </c>
       <c r="D17" t="n">
-        <v>60235.437668979</v>
+        <v>60235.439772699</v>
       </c>
       <c r="E17" t="n">
-        <v>117449.999372822</v>
+        <v>117449.994229152</v>
       </c>
       <c r="F17" t="n">
-        <v>130291.245852603</v>
+        <v>130291.2413514</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>110751</v>
       </c>
       <c r="I17" t="n">
-        <v>-16800.1994570648</v>
+        <v>-16800.2027704287</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>104478.393299705</v>
+        <v>104478.389783832</v>
       </c>
       <c r="C18" t="n">
-        <v>81568.2815727475</v>
+        <v>81568.2813166094</v>
       </c>
       <c r="D18" t="n">
-        <v>69919.2919736281</v>
+        <v>69919.2937675208</v>
       </c>
       <c r="E18" t="n">
-        <v>128434.16959071</v>
+        <v>128434.166001445</v>
       </c>
       <c r="F18" t="n">
-        <v>141495.372396134</v>
+        <v>141495.370647504</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>112075</v>
       </c>
       <c r="I18" t="n">
-        <v>-7596.60670029494</v>
+        <v>-7596.61021616776</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>123450.743828514</v>
+        <v>123450.7419929</v>
       </c>
       <c r="C19" t="n">
-        <v>99697.7908943377</v>
+        <v>99697.7898638559</v>
       </c>
       <c r="D19" t="n">
-        <v>87549.1809343059</v>
+        <v>87549.1815915865</v>
       </c>
       <c r="E19" t="n">
-        <v>148148.255727836</v>
+        <v>148148.257632747</v>
       </c>
       <c r="F19" t="n">
-        <v>161569.894824179</v>
+        <v>161569.900913968</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>117015</v>
       </c>
       <c r="I19" t="n">
-        <v>6435.74382851357</v>
+        <v>6435.74199290044</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>141239.003860124</v>
+        <v>141239.004306679</v>
       </c>
       <c r="C20" t="n">
-        <v>116791.33117098</v>
+        <v>116791.329255628</v>
       </c>
       <c r="D20" t="n">
-        <v>104236.967179208</v>
+        <v>104236.965798356</v>
       </c>
       <c r="E20" t="n">
-        <v>166556.972203176</v>
+        <v>166556.980342532</v>
       </c>
       <c r="F20" t="n">
-        <v>180282.76037447</v>
+        <v>180282.774982479</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>123462</v>
       </c>
       <c r="I20" t="n">
-        <v>17777.0038601243</v>
+        <v>17777.0043066792</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>139758.895832666</v>
+        <v>139758.896088785</v>
       </c>
       <c r="C21" t="n">
-        <v>115366.091093542</v>
+        <v>115366.089271153</v>
       </c>
       <c r="D21" t="n">
-        <v>102843.597537879</v>
+        <v>102843.596365076</v>
       </c>
       <c r="E21" t="n">
-        <v>165027.587716303</v>
+        <v>165027.595328801</v>
       </c>
       <c r="F21" t="n">
-        <v>178729.139042952</v>
+        <v>178729.152933015</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>103609</v>
       </c>
       <c r="I21" t="n">
-        <v>36149.8958326665</v>
+        <v>36149.8960887853</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>114352.499860957</v>
+        <v>114352.496929365</v>
       </c>
       <c r="C22" t="n">
-        <v>90988.6725955227</v>
+        <v>90988.6718132153</v>
       </c>
       <c r="D22" t="n">
-        <v>79069.6315757275</v>
+        <v>79069.6328091462</v>
       </c>
       <c r="E22" t="n">
-        <v>138705.970695868</v>
+        <v>138705.969597307</v>
       </c>
       <c r="F22" t="n">
-        <v>151959.974142438</v>
+        <v>151959.976083166</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>90862</v>
       </c>
       <c r="I22" t="n">
-        <v>23490.4998609567</v>
+        <v>23490.4969293649</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>104637.450054939</v>
+        <v>104637.44608185</v>
       </c>
       <c r="C23" t="n">
-        <v>81719.7413642458</v>
+        <v>81719.7406586008</v>
       </c>
       <c r="D23" t="n">
-        <v>70066.207384711</v>
+        <v>70066.2087450375</v>
       </c>
       <c r="E23" t="n">
-        <v>128599.853203604</v>
+        <v>128599.849166922</v>
       </c>
       <c r="F23" t="n">
-        <v>141664.259702395</v>
+        <v>141664.25751589</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>74343</v>
       </c>
       <c r="I23" t="n">
-        <v>30294.4500549389</v>
+        <v>30294.4460818501</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>105939.35273053</v>
+        <v>105939.348468804</v>
       </c>
       <c r="C24" t="n">
-        <v>82959.8350593095</v>
+        <v>82959.8339583325</v>
       </c>
       <c r="D24" t="n">
-        <v>71269.3576030038</v>
+        <v>71269.3585952587</v>
       </c>
       <c r="E24" t="n">
-        <v>129955.713519211</v>
+        <v>129955.709420265</v>
       </c>
       <c r="F24" t="n">
-        <v>143046.216873394</v>
+        <v>143046.21477291</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>64241</v>
       </c>
       <c r="I24" t="n">
-        <v>41698.3527305304</v>
+        <v>41698.3484688042</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>140507.616552453</v>
+        <v>140507.61466082</v>
       </c>
       <c r="C25" t="n">
-        <v>116086.998425296</v>
+        <v>116086.994395341</v>
       </c>
       <c r="D25" t="n">
-        <v>103548.345426216</v>
+        <v>103548.342036303</v>
       </c>
       <c r="E25" t="n">
-        <v>165801.281188531</v>
+        <v>165801.286748624</v>
       </c>
       <c r="F25" t="n">
-        <v>179515.113560533</v>
+        <v>179515.125458098</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>82512</v>
       </c>
       <c r="I25" t="n">
-        <v>57995.6165524527</v>
+        <v>57995.6146608196</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>152340.319268217</v>
+        <v>152340.319387165</v>
       </c>
       <c r="C26" t="n">
-        <v>126373.279529705</v>
+        <v>126373.274871995</v>
       </c>
       <c r="D26" t="n">
-        <v>113031.507574185</v>
+        <v>113031.502576228</v>
       </c>
       <c r="E26" t="n">
-        <v>179217.038067873</v>
+        <v>179217.049188631</v>
       </c>
       <c r="F26" t="n">
-        <v>193783.042861715</v>
+        <v>193783.062533935</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>80364</v>
       </c>
       <c r="I26" t="n">
-        <v>71976.3192682168</v>
+        <v>71976.3193871652</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>134669.175028284</v>
+        <v>134669.175217888</v>
       </c>
       <c r="C27" t="n">
-        <v>108813.01757839</v>
+        <v>108813.016495638</v>
       </c>
       <c r="D27" t="n">
-        <v>95587.5558310439</v>
+        <v>95587.5558848148</v>
       </c>
       <c r="E27" t="n">
-        <v>161551.223426892</v>
+        <v>161551.230709794</v>
       </c>
       <c r="F27" t="n">
-        <v>176159.289149418</v>
+        <v>176159.302880345</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>92535</v>
       </c>
       <c r="I27" t="n">
-        <v>42134.1750282844</v>
+        <v>42134.1752178883</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>124070.22509285</v>
+        <v>124070.22340227</v>
       </c>
       <c r="C28" t="n">
-        <v>98599.4648273014</v>
+        <v>98599.4638231623</v>
       </c>
       <c r="D28" t="n">
-        <v>85608.3438149639</v>
+        <v>85608.3445919495</v>
       </c>
       <c r="E28" t="n">
-        <v>150625.323332399</v>
+        <v>150625.326232335</v>
       </c>
       <c r="F28" t="n">
-        <v>165079.252695261</v>
+        <v>165079.260599087</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>122555</v>
       </c>
       <c r="I28" t="n">
-        <v>1515.22509285028</v>
+        <v>1515.22340227015</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>99192.483428678</v>
+        <v>99192.4790432484</v>
       </c>
       <c r="C29" t="n">
-        <v>74937.2702922804</v>
+        <v>74937.2697020075</v>
       </c>
       <c r="D29" t="n">
-        <v>62675.8959558095</v>
+        <v>62675.897185831</v>
       </c>
       <c r="E29" t="n">
-        <v>124690.762959479</v>
+        <v>124690.757838817</v>
       </c>
       <c r="F29" t="n">
-        <v>138634.723190871</v>
+        <v>138634.719747938</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>74986</v>
       </c>
       <c r="I29" t="n">
-        <v>24206.483428678</v>
+        <v>24206.4790432484</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>109829.04639392</v>
+        <v>109829.042121946</v>
       </c>
       <c r="C30" t="n">
-        <v>85024.998895511</v>
+        <v>85024.9974638402</v>
       </c>
       <c r="D30" t="n">
-        <v>72431.6929352833</v>
+        <v>72431.6936601202</v>
       </c>
       <c r="E30" t="n">
-        <v>135801.143876703</v>
+        <v>135801.140968751</v>
       </c>
       <c r="F30" t="n">
-        <v>149972.824864573</v>
+        <v>149972.825005049</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>82369</v>
       </c>
       <c r="I30" t="n">
-        <v>27460.04639392</v>
+        <v>27460.0421219457</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>128977.573057997</v>
+        <v>128977.571229089</v>
       </c>
       <c r="C31" t="n">
-        <v>103292.338408046</v>
+        <v>103292.336430317</v>
       </c>
       <c r="D31" t="n">
-        <v>90174.3635608623</v>
+        <v>90174.363124334</v>
       </c>
       <c r="E31" t="n">
-        <v>155721.819868779</v>
+        <v>155721.823756635</v>
       </c>
       <c r="F31" t="n">
-        <v>170267.775871018</v>
+        <v>170267.785427368</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>95012</v>
       </c>
       <c r="I31" t="n">
-        <v>33965.5730579969</v>
+        <v>33965.5712290885</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>146912.492299417</v>
+        <v>146912.493586398</v>
       </c>
       <c r="C32" t="n">
-        <v>120498.650913743</v>
+        <v>120498.648448682</v>
       </c>
       <c r="D32" t="n">
-        <v>106953.309965663</v>
+        <v>106953.307678574</v>
       </c>
       <c r="E32" t="n">
-        <v>174304.667166298</v>
+        <v>174304.678565393</v>
       </c>
       <c r="F32" t="n">
-        <v>189167.419585625</v>
+        <v>189167.439166172</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>103468</v>
       </c>
       <c r="I32" t="n">
-        <v>43444.4922994175</v>
+        <v>43444.493586398</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>145420.758190647</v>
+        <v>145420.759215247</v>
       </c>
       <c r="C33" t="n">
-        <v>119064.528784858</v>
+        <v>119064.526375371</v>
       </c>
       <c r="D33" t="n">
-        <v>105552.792407826</v>
+        <v>105552.790308197</v>
       </c>
       <c r="E33" t="n">
-        <v>172761.412752013</v>
+        <v>172761.423517205</v>
       </c>
       <c r="F33" t="n">
-        <v>187598.89034382</v>
+        <v>187598.90908117</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>100107</v>
       </c>
       <c r="I33" t="n">
-        <v>45313.7581906474</v>
+        <v>45313.7592152474</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>119797.736001853</v>
+        <v>119797.732687447</v>
       </c>
       <c r="C34" t="n">
-        <v>94519.7358895395</v>
+        <v>94519.7340156408</v>
       </c>
       <c r="D34" t="n">
-        <v>81643.0723394144</v>
+        <v>81643.0724510898</v>
       </c>
       <c r="E34" t="n">
-        <v>146183.485178944</v>
+        <v>146183.485425643</v>
       </c>
       <c r="F34" t="n">
-        <v>160555.205397655</v>
+        <v>160555.210039716</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>76490</v>
       </c>
       <c r="I34" t="n">
-        <v>43307.7360018525</v>
+        <v>43307.7326874465</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>109989.681662925</v>
+        <v>109989.676934663</v>
       </c>
       <c r="C35" t="n">
-        <v>85177.7065912808</v>
+        <v>85177.7047070918</v>
       </c>
       <c r="D35" t="n">
-        <v>72579.6371836054</v>
+        <v>72579.6374701867</v>
       </c>
       <c r="E35" t="n">
-        <v>135968.664950011</v>
+        <v>135968.661599711</v>
       </c>
       <c r="F35" t="n">
-        <v>150143.666698151</v>
+        <v>150143.666407964</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>61743</v>
       </c>
       <c r="I35" t="n">
-        <v>48246.6816629245</v>
+        <v>48246.6769346628</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>111304.433928484</v>
+        <v>111304.428954143</v>
       </c>
       <c r="C36" t="n">
-        <v>86427.9492900798</v>
+        <v>86427.9470140213</v>
       </c>
       <c r="D36" t="n">
-        <v>73791.1491327686</v>
+        <v>73791.149036411</v>
       </c>
       <c r="E36" t="n">
-        <v>137339.492268121</v>
+        <v>137339.488937334</v>
       </c>
       <c r="F36" t="n">
-        <v>151541.548628365</v>
+        <v>151541.548525935</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>50972</v>
       </c>
       <c r="I36" t="n">
-        <v>60332.4339284844</v>
+        <v>60332.4289541427</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>146175.372160343</v>
+        <v>146175.371055912</v>
       </c>
       <c r="C37" t="n">
-        <v>119789.939392531</v>
+        <v>119789.934780847</v>
       </c>
       <c r="D37" t="n">
-        <v>106261.164848387</v>
+        <v>106261.160531133</v>
       </c>
       <c r="E37" t="n">
-        <v>173542.135715006</v>
+        <v>173542.144460902</v>
       </c>
       <c r="F37" t="n">
-        <v>188392.419876151</v>
+        <v>188392.436661766</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>29010</v>
       </c>
       <c r="I37" t="n">
-        <v>117165.372160343</v>
+        <v>117165.371055912</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>158098.059022302</v>
+        <v>158098.060518403</v>
       </c>
       <c r="C38" t="n">
-        <v>130211.739201216</v>
+        <v>130211.734275021</v>
       </c>
       <c r="D38" t="n">
-        <v>115901.229439696</v>
+        <v>115901.223698663</v>
       </c>
       <c r="E38" t="n">
-        <v>186996.804543526</v>
+        <v>186996.819733289</v>
       </c>
       <c r="F38" t="n">
-        <v>202670.331981398</v>
+        <v>202670.35758046</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>42950</v>
       </c>
       <c r="I38" t="n">
-        <v>115148.059022302</v>
+        <v>115148.060518403</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>140290.298461864</v>
+        <v>140290.299180373</v>
       </c>
       <c r="C39" t="n">
-        <v>112575.769937798</v>
+        <v>112575.768128302</v>
       </c>
       <c r="D39" t="n">
-        <v>98416.5429143279</v>
+        <v>98416.5419658776</v>
       </c>
       <c r="E39" t="n">
-        <v>169137.892087633</v>
+        <v>169137.90221185</v>
       </c>
       <c r="F39" t="n">
-        <v>184824.774529452</v>
+        <v>184824.792767216</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>96292</v>
       </c>
       <c r="I39" t="n">
-        <v>43998.2984618637</v>
+        <v>43998.299180373</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>129602.434636111</v>
+        <v>129602.432980456</v>
       </c>
       <c r="C40" t="n">
-        <v>102294.667632641</v>
+        <v>102294.6656744</v>
       </c>
       <c r="D40" t="n">
-        <v>88383.1117565346</v>
+        <v>88383.1114385513</v>
       </c>
       <c r="E40" t="n">
-        <v>158105.094676469</v>
+        <v>158105.099663777</v>
       </c>
       <c r="F40" t="n">
-        <v>173629.281242191</v>
+        <v>173629.292767399</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>122646</v>
       </c>
       <c r="I40" t="n">
-        <v>6956.43463611127</v>
+        <v>6956.43298045629</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>104489.564611761</v>
+        <v>104489.559290042</v>
       </c>
       <c r="C41" t="n">
-        <v>78440.3249439016</v>
+        <v>78440.323178177</v>
       </c>
       <c r="D41" t="n">
-        <v>65286.9928422219</v>
+        <v>65286.9931389909</v>
       </c>
       <c r="E41" t="n">
-        <v>131901.688965636</v>
+        <v>131901.684246138</v>
       </c>
       <c r="F41" t="n">
-        <v>146900.636904188</v>
+        <v>146900.635040284</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>103060</v>
       </c>
       <c r="I41" t="n">
-        <v>1429.56461176142</v>
+        <v>1429.55929004181</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>115231.788890666</v>
+        <v>115231.784047932</v>
       </c>
       <c r="C42" t="n">
-        <v>88615.126705816</v>
+        <v>88615.1241177811</v>
       </c>
       <c r="D42" t="n">
-        <v>75117.417830726</v>
+        <v>75117.4174624241</v>
       </c>
       <c r="E42" t="n">
-        <v>143132.187943421</v>
+        <v>143132.186127933</v>
       </c>
       <c r="F42" t="n">
-        <v>158365.376844618</v>
+        <v>158365.379416291</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>115898</v>
       </c>
       <c r="I42" t="n">
-        <v>-666.21110933405</v>
+        <v>-666.215952068116</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>134551.668768445</v>
+        <v>134551.667191113</v>
       </c>
       <c r="C43" t="n">
-        <v>107021.195627852</v>
+        <v>107021.192787628</v>
       </c>
       <c r="D43" t="n">
-        <v>92977.4442492249</v>
+        <v>92977.4427467749</v>
       </c>
       <c r="E43" t="n">
-        <v>163250.049416353</v>
+        <v>163250.055730783</v>
       </c>
       <c r="F43" t="n">
-        <v>178869.264717234</v>
+        <v>178869.278296283</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>108442</v>
       </c>
       <c r="I43" t="n">
-        <v>26109.6687684453</v>
+        <v>26109.6671911135</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>152629.669712462</v>
+        <v>152629.672119617</v>
       </c>
       <c r="C44" t="n">
-        <v>124341.360307617</v>
+        <v>124341.357423071</v>
       </c>
       <c r="D44" t="n">
-        <v>109851.521388481</v>
+        <v>109851.518264587</v>
       </c>
       <c r="E44" t="n">
-        <v>181999.592972453</v>
+        <v>181999.608086087</v>
       </c>
       <c r="F44" t="n">
-        <v>197946.459936474</v>
+        <v>197946.485041498</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>119375</v>
       </c>
       <c r="I44" t="n">
-        <v>33254.669712462</v>
+        <v>33254.6721196169</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>151126.579884597</v>
+        <v>151126.581955059</v>
       </c>
       <c r="C45" t="n">
-        <v>122898.261003652</v>
+        <v>122898.258133905</v>
       </c>
       <c r="D45" t="n">
-        <v>108443.536777592</v>
+        <v>108443.533817282</v>
       </c>
       <c r="E45" t="n">
-        <v>180443.045545541</v>
+        <v>180443.059917792</v>
       </c>
       <c r="F45" t="n">
-        <v>196363.743215924</v>
+        <v>196363.767353294</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>125319</v>
       </c>
       <c r="I45" t="n">
-        <v>25807.5798845968</v>
+        <v>25807.5819550594</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>125292.396171375</v>
+        <v>125292.392694234</v>
       </c>
       <c r="C46" t="n">
-        <v>98184.6325554602</v>
+        <v>98184.6296461899</v>
       </c>
       <c r="D46" t="n">
-        <v>84392.2619866364</v>
+        <v>84392.2609808702</v>
       </c>
       <c r="E46" t="n">
-        <v>153619.954044589</v>
+        <v>153619.956068061</v>
       </c>
       <c r="F46" t="n">
-        <v>169059.310390775</v>
+        <v>169059.31828671</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>102559</v>
       </c>
       <c r="I46" t="n">
-        <v>22733.3961713745</v>
+        <v>22733.3926942336</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>115393.956666591</v>
+        <v>115393.95136927</v>
       </c>
       <c r="C47" t="n">
-        <v>88769.0881255136</v>
+        <v>88769.0850825923</v>
       </c>
       <c r="D47" t="n">
-        <v>75266.4307266652</v>
+        <v>75266.4299157907</v>
       </c>
       <c r="E47" t="n">
-        <v>143301.459807621</v>
+        <v>143301.457555504</v>
       </c>
       <c r="F47" t="n">
-        <v>158538.068221596</v>
+        <v>158538.070370356</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>90744</v>
       </c>
       <c r="I47" t="n">
-        <v>24649.9566665914</v>
+        <v>24649.9513692703</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>116721.185982597</v>
+        <v>116721.180486963</v>
       </c>
       <c r="C48" t="n">
-        <v>90029.5288309494</v>
+        <v>90029.5254049241</v>
       </c>
       <c r="D48" t="n">
-        <v>76486.6293634229</v>
+        <v>76486.6281586114</v>
       </c>
       <c r="E48" t="n">
-        <v>144686.550265111</v>
+        <v>144686.548117634</v>
       </c>
       <c r="F48" t="n">
-        <v>159951.021673741</v>
+        <v>159951.024114025</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>73835</v>
       </c>
       <c r="I48" t="n">
-        <v>42886.1859825968</v>
+        <v>42886.1804869634</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>151886.949784351</v>
+        <v>151886.949746122</v>
       </c>
       <c r="C49" t="n">
-        <v>123628.22295123</v>
+        <v>123628.217886231</v>
       </c>
       <c r="D49" t="n">
-        <v>109155.69551274</v>
+        <v>109155.690335473</v>
       </c>
       <c r="E49" t="n">
-        <v>181230.505261515</v>
+        <v>181230.517648686</v>
       </c>
       <c r="F49" t="n">
-        <v>197164.462284287</v>
+        <v>197164.484511385</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>67461</v>
       </c>
       <c r="I49" t="n">
-        <v>84425.9497843508</v>
+        <v>84425.9497461217</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/Infectious diarrhea.xlsx
+++ b/outcome/appendix/forecast/Infectious diarrhea.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>137832.900066578</v>
+        <v>137832.900646052</v>
       </c>
       <c r="C2" t="n">
-        <v>120037.548759694</v>
+        <v>120037.55102515</v>
       </c>
       <c r="D2" t="n">
-        <v>110820.096560868</v>
+        <v>110820.098835256</v>
       </c>
       <c r="E2" t="n">
-        <v>156095.7090259</v>
+        <v>156095.70541676</v>
       </c>
       <c r="F2" t="n">
-        <v>165940.867332562</v>
+        <v>165940.860399636</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>121473</v>
       </c>
       <c r="I2" t="n">
-        <v>16359.9000665782</v>
+        <v>16359.900646052</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>123278.750171426</v>
+        <v>123278.749933944</v>
       </c>
       <c r="C3" t="n">
-        <v>101813.303305375</v>
+        <v>101813.302328804</v>
       </c>
       <c r="D3" t="n">
-        <v>90792.6892061117</v>
+        <v>90792.6868752816</v>
       </c>
       <c r="E3" t="n">
-        <v>145513.066415748</v>
+        <v>145513.063613578</v>
       </c>
       <c r="F3" t="n">
-        <v>157568.651150329</v>
+        <v>157568.645405888</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>45510</v>
       </c>
       <c r="I3" t="n">
-        <v>77768.7501714264</v>
+        <v>77768.7499339442</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>113152.309535737</v>
+        <v>113152.310716379</v>
       </c>
       <c r="C4" t="n">
-        <v>91634.5825801567</v>
+        <v>91634.5817192131</v>
       </c>
       <c r="D4" t="n">
-        <v>80623.9632662651</v>
+        <v>80623.9606494995</v>
       </c>
       <c r="E4" t="n">
-        <v>135515.251415745</v>
+        <v>135515.25167948</v>
       </c>
       <c r="F4" t="n">
-        <v>147664.828379973</v>
+        <v>147664.826623265</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>48491</v>
       </c>
       <c r="I4" t="n">
-        <v>64661.3095357373</v>
+        <v>64661.3107163786</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>88766.3625589021</v>
+        <v>88766.3647376071</v>
       </c>
       <c r="C5" t="n">
-        <v>68352.3384633713</v>
+        <v>68352.3371525949</v>
       </c>
       <c r="D5" t="n">
-        <v>57997.6801583543</v>
+        <v>57997.6776647692</v>
       </c>
       <c r="E5" t="n">
-        <v>110160.3978245</v>
+        <v>110160.402493621</v>
       </c>
       <c r="F5" t="n">
-        <v>121839.811898761</v>
+        <v>121839.816828695</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>58544</v>
       </c>
       <c r="I5" t="n">
-        <v>30222.3625589021</v>
+        <v>30222.3647376071</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>99181.4239177811</v>
+        <v>99181.4265605475</v>
       </c>
       <c r="C6" t="n">
-        <v>78267.49864361</v>
+        <v>78267.4980355742</v>
       </c>
       <c r="D6" t="n">
-        <v>67613.5739851738</v>
+        <v>67613.5716135161</v>
       </c>
       <c r="E6" t="n">
-        <v>121011.211884326</v>
+        <v>121011.215760878</v>
       </c>
       <c r="F6" t="n">
-        <v>132901.202605499</v>
+        <v>132901.205832305</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>87151</v>
       </c>
       <c r="I6" t="n">
-        <v>12030.4239177811</v>
+        <v>12030.4265605475</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>117972.447623346</v>
+        <v>117972.449378612</v>
       </c>
       <c r="C7" t="n">
-        <v>96261.2107979417</v>
+        <v>96261.2110300679</v>
       </c>
       <c r="D7" t="n">
-        <v>85137.2494202038</v>
+        <v>85137.2480054071</v>
       </c>
       <c r="E7" t="n">
-        <v>140507.714144894</v>
+        <v>140507.714211628</v>
       </c>
       <c r="F7" t="n">
-        <v>152741.617016815</v>
+        <v>152741.614590852</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>114085</v>
       </c>
       <c r="I7" t="n">
-        <v>3887.44762334628</v>
+        <v>3887.44937861244</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>135610.256855446</v>
+        <v>135610.257257822</v>
       </c>
       <c r="C8" t="n">
-        <v>113243.985841001</v>
+        <v>113243.987169692</v>
       </c>
       <c r="D8" t="n">
-        <v>101739.424747966</v>
+        <v>101739.425284516</v>
       </c>
       <c r="E8" t="n">
-        <v>158733.632009512</v>
+        <v>158733.627588359</v>
       </c>
       <c r="F8" t="n">
-        <v>171256.751030659</v>
+        <v>171256.742283461</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>109407</v>
       </c>
       <c r="I8" t="n">
-        <v>26203.256855446</v>
+        <v>26203.2572578216</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>134142.06062219</v>
+        <v>134142.061177722</v>
       </c>
       <c r="C9" t="n">
-        <v>111827.459801569</v>
+        <v>111827.461058856</v>
       </c>
       <c r="D9" t="n">
-        <v>100352.761120664</v>
+        <v>100352.761496284</v>
       </c>
       <c r="E9" t="n">
-        <v>157218.78947652</v>
+        <v>157218.785479136</v>
       </c>
       <c r="F9" t="n">
-        <v>169718.892080487</v>
+        <v>169718.883912053</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>109407</v>
       </c>
       <c r="I9" t="n">
-        <v>24735.0606221901</v>
+        <v>24735.0611777221</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>108958.095111914</v>
+        <v>108958.09755586</v>
       </c>
       <c r="C10" t="n">
-        <v>87614.5777107724</v>
+        <v>87614.5776430262</v>
       </c>
       <c r="D10" t="n">
-        <v>76706.3836426466</v>
+        <v>76706.3817302176</v>
       </c>
       <c r="E10" t="n">
-        <v>131166.48788992</v>
+        <v>131166.490127628</v>
       </c>
       <c r="F10" t="n">
-        <v>143240.608681548</v>
+        <v>143240.609334607</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>97075</v>
       </c>
       <c r="I10" t="n">
-        <v>11883.0951119142</v>
+        <v>11883.0975558599</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>99338.8523466419</v>
+        <v>99338.8554427942</v>
       </c>
       <c r="C11" t="n">
-        <v>78417.7261570182</v>
+        <v>78417.7259901915</v>
       </c>
       <c r="D11" t="n">
-        <v>67759.5183478872</v>
+        <v>67759.5164007877</v>
       </c>
       <c r="E11" t="n">
-        <v>121174.95605642</v>
+        <v>121174.960383019</v>
       </c>
       <c r="F11" t="n">
-        <v>133068.009707311</v>
+        <v>133068.013378423</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>79196</v>
       </c>
       <c r="I11" t="n">
-        <v>20142.8523466419</v>
+        <v>20142.8554427942</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>100627.505606049</v>
+        <v>100627.509045739</v>
       </c>
       <c r="C12" t="n">
-        <v>79647.8028650887</v>
+        <v>79647.8031008483</v>
       </c>
       <c r="D12" t="n">
-        <v>68954.7809017403</v>
+        <v>68954.7793167711</v>
       </c>
       <c r="E12" t="n">
-        <v>122515.024818395</v>
+        <v>122515.029323745</v>
       </c>
       <c r="F12" t="n">
-        <v>134433.024450317</v>
+        <v>134433.028186961</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>83209</v>
       </c>
       <c r="I12" t="n">
-        <v>17418.505606049</v>
+        <v>17418.5090457394</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>134884.74073268</v>
+        <v>134884.743301674</v>
       </c>
       <c r="C13" t="n">
-        <v>112543.946751045</v>
+        <v>112543.950061457</v>
       </c>
       <c r="D13" t="n">
-        <v>101054.10640041</v>
+        <v>101054.108831594</v>
       </c>
       <c r="E13" t="n">
-        <v>157985.110140635</v>
+        <v>157985.108086392</v>
       </c>
       <c r="F13" t="n">
-        <v>170496.875744336</v>
+        <v>170496.869473441</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>108084</v>
       </c>
       <c r="I13" t="n">
-        <v>26800.7407326801</v>
+        <v>26800.7433016737</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>146625.319828106</v>
+        <v>146625.321054623</v>
       </c>
       <c r="C14" t="n">
-        <v>122679.058514719</v>
+        <v>122679.062629677</v>
       </c>
       <c r="D14" t="n">
-        <v>110357.799022114</v>
+        <v>110357.80303969</v>
       </c>
       <c r="E14" t="n">
-        <v>171373.911652912</v>
+        <v>171373.905310931</v>
       </c>
       <c r="F14" t="n">
-        <v>184774.470387665</v>
+        <v>184774.457970996</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>177114</v>
       </c>
       <c r="I14" t="n">
-        <v>-30488.6801718937</v>
+        <v>-30488.6789453774</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>129094.100081869</v>
+        <v>129094.100497413</v>
       </c>
       <c r="C15" t="n">
-        <v>105185.752486377</v>
+        <v>105185.752998389</v>
       </c>
       <c r="D15" t="n">
-        <v>92939.0637542356</v>
+        <v>92939.0630174998</v>
       </c>
       <c r="E15" t="n">
-        <v>153915.88090309</v>
+        <v>153915.87690579</v>
       </c>
       <c r="F15" t="n">
-        <v>167393.031904707</v>
+        <v>167393.02353994</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>144447</v>
       </c>
       <c r="I15" t="n">
-        <v>-15352.8999181306</v>
+        <v>-15352.8995025872</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>118586.402047597</v>
+        <v>118586.403741273</v>
       </c>
       <c r="C16" t="n">
-        <v>95038.3085977425</v>
+        <v>95038.3088698108</v>
       </c>
       <c r="D16" t="n">
-        <v>83010.3369737463</v>
+        <v>83010.3355343338</v>
       </c>
       <c r="E16" t="n">
-        <v>143102.465343285</v>
+        <v>143102.464629488</v>
       </c>
       <c r="F16" t="n">
-        <v>156435.600460796</v>
+        <v>156435.59655222</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>141593</v>
       </c>
       <c r="I16" t="n">
-        <v>-23006.5979524028</v>
+        <v>-23006.5962587267</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>93950.7972295713</v>
+        <v>93950.8006032976</v>
       </c>
       <c r="C17" t="n">
-        <v>71567.3373938161</v>
+        <v>71567.337223806</v>
       </c>
       <c r="D17" t="n">
-        <v>60235.439772699</v>
+        <v>60235.4381758729</v>
       </c>
       <c r="E17" t="n">
-        <v>117449.994229152</v>
+        <v>117449.999314259</v>
       </c>
       <c r="F17" t="n">
-        <v>130291.2413514</v>
+        <v>130291.245892824</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>110751</v>
       </c>
       <c r="I17" t="n">
-        <v>-16800.2027704287</v>
+        <v>-16800.1993967024</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>104478.389783832</v>
+        <v>104478.393391983</v>
       </c>
       <c r="C18" t="n">
-        <v>81568.2813166094</v>
+        <v>81568.2819265991</v>
       </c>
       <c r="D18" t="n">
-        <v>69919.2937675208</v>
+        <v>69919.2924989144</v>
       </c>
       <c r="E18" t="n">
-        <v>128434.166001445</v>
+        <v>128434.1697414</v>
       </c>
       <c r="F18" t="n">
-        <v>141495.370647504</v>
+        <v>141495.372766244</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>112075</v>
       </c>
       <c r="I18" t="n">
-        <v>-7596.61021616776</v>
+        <v>-7596.60660801681</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>123450.7419929</v>
+        <v>123450.744092744</v>
       </c>
       <c r="C19" t="n">
-        <v>99697.7898638559</v>
+        <v>99697.7911756065</v>
       </c>
       <c r="D19" t="n">
-        <v>87549.1815915865</v>
+        <v>87549.1813514133</v>
       </c>
       <c r="E19" t="n">
-        <v>148148.257632747</v>
+        <v>148148.256431175</v>
       </c>
       <c r="F19" t="n">
-        <v>161569.900913968</v>
+        <v>161569.895981058</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>117015</v>
       </c>
       <c r="I19" t="n">
-        <v>6435.74199290044</v>
+        <v>6435.74409274441</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>141239.004306679</v>
+        <v>141239.004342523</v>
       </c>
       <c r="C20" t="n">
-        <v>116791.329255628</v>
+        <v>116791.331354664</v>
       </c>
       <c r="D20" t="n">
-        <v>104236.965798356</v>
+        <v>104236.967383995</v>
       </c>
       <c r="E20" t="n">
-        <v>166556.980342532</v>
+        <v>166556.973519117</v>
       </c>
       <c r="F20" t="n">
-        <v>180282.774982479</v>
+        <v>180282.762371954</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>123462</v>
       </c>
       <c r="I20" t="n">
-        <v>17777.0043066792</v>
+        <v>17777.0043425232</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>139758.896088785</v>
+        <v>139758.896340187</v>
       </c>
       <c r="C21" t="n">
-        <v>115366.089271153</v>
+        <v>115366.091329011</v>
       </c>
       <c r="D21" t="n">
-        <v>102843.596365076</v>
+        <v>102843.597804982</v>
       </c>
       <c r="E21" t="n">
-        <v>165027.595328801</v>
+        <v>165027.589025225</v>
       </c>
       <c r="F21" t="n">
-        <v>178729.152933015</v>
+        <v>178729.141015047</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>103609</v>
       </c>
       <c r="I21" t="n">
-        <v>36149.8960887853</v>
+        <v>36149.8963401869</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>114352.496929365</v>
+        <v>114352.500041204</v>
       </c>
       <c r="C22" t="n">
-        <v>90988.6718132153</v>
+        <v>90988.6729256382</v>
       </c>
       <c r="D22" t="n">
-        <v>79069.6328091462</v>
+        <v>79069.6320735081</v>
       </c>
       <c r="E22" t="n">
-        <v>138705.969597307</v>
+        <v>138705.971125825</v>
       </c>
       <c r="F22" t="n">
-        <v>151959.976083166</v>
+        <v>151959.974912019</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>90862</v>
       </c>
       <c r="I22" t="n">
-        <v>23490.4969293649</v>
+        <v>23490.5000412041</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>104637.44608185</v>
+        <v>104637.450143812</v>
       </c>
       <c r="C23" t="n">
-        <v>81719.7406586008</v>
+        <v>81719.7417134555</v>
       </c>
       <c r="D23" t="n">
-        <v>70066.2087450375</v>
+        <v>70066.2079057496</v>
       </c>
       <c r="E23" t="n">
-        <v>128599.849166922</v>
+        <v>128599.853353621</v>
       </c>
       <c r="F23" t="n">
-        <v>141664.25751589</v>
+        <v>141664.260073634</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>74343</v>
       </c>
       <c r="I23" t="n">
-        <v>30294.4460818501</v>
+        <v>30294.4501438121</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>105939.348468804</v>
+        <v>105939.352842221</v>
       </c>
       <c r="C24" t="n">
-        <v>82959.8339583325</v>
+        <v>82959.8354183443</v>
       </c>
       <c r="D24" t="n">
-        <v>71269.3585952587</v>
+        <v>71269.3581352158</v>
       </c>
       <c r="E24" t="n">
-        <v>129955.709420265</v>
+        <v>129955.713716726</v>
       </c>
       <c r="F24" t="n">
-        <v>143046.21477291</v>
+        <v>143046.21730795</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>64241</v>
       </c>
       <c r="I24" t="n">
-        <v>41698.3484688042</v>
+        <v>41698.3528422206</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>140507.61466082</v>
+        <v>140507.616911132</v>
       </c>
       <c r="C25" t="n">
-        <v>116086.994395341</v>
+        <v>116086.998503523</v>
       </c>
       <c r="D25" t="n">
-        <v>103548.342036303</v>
+        <v>103548.34553372</v>
       </c>
       <c r="E25" t="n">
-        <v>165801.286748624</v>
+        <v>165801.282360322</v>
       </c>
       <c r="F25" t="n">
-        <v>179515.125458098</v>
+        <v>179515.115402558</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>82512</v>
       </c>
       <c r="I25" t="n">
-        <v>57995.6146608196</v>
+        <v>57995.6169111324</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>152340.319387165</v>
+        <v>152340.319782629</v>
       </c>
       <c r="C26" t="n">
-        <v>126373.274871995</v>
+        <v>126373.279521872</v>
       </c>
       <c r="D26" t="n">
-        <v>113031.502576228</v>
+        <v>113031.507508692</v>
       </c>
       <c r="E26" t="n">
-        <v>179217.049188631</v>
+        <v>179217.03972711</v>
       </c>
       <c r="F26" t="n">
-        <v>193783.062533935</v>
+        <v>193783.0453998</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>80364</v>
       </c>
       <c r="I26" t="n">
-        <v>71976.3193871652</v>
+        <v>71976.3197826285</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>134669.175217888</v>
+        <v>134669.17553486</v>
       </c>
       <c r="C27" t="n">
-        <v>108813.016495638</v>
+        <v>108813.017911227</v>
       </c>
       <c r="D27" t="n">
-        <v>95587.5558848148</v>
+        <v>95587.5562527659</v>
       </c>
       <c r="E27" t="n">
-        <v>161551.230709794</v>
+        <v>161551.224689187</v>
       </c>
       <c r="F27" t="n">
-        <v>176159.302880345</v>
+        <v>176159.291081095</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>92535</v>
       </c>
       <c r="I27" t="n">
-        <v>42134.1752178883</v>
+        <v>42134.1755348597</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>124070.22340227</v>
+        <v>124070.225417176</v>
       </c>
       <c r="C28" t="n">
-        <v>98599.4638231623</v>
+        <v>98599.4651729692</v>
       </c>
       <c r="D28" t="n">
-        <v>85608.3445919495</v>
+        <v>85608.3443133871</v>
       </c>
       <c r="E28" t="n">
-        <v>150625.326232335</v>
+        <v>150625.324162675</v>
       </c>
       <c r="F28" t="n">
-        <v>165079.260599087</v>
+        <v>165079.254050687</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>122555</v>
       </c>
       <c r="I28" t="n">
-        <v>1515.22340227015</v>
+        <v>1515.22541717626</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>99192.4790432484</v>
+        <v>99192.4835205892</v>
       </c>
       <c r="C29" t="n">
-        <v>74937.2697020075</v>
+        <v>74937.2707110496</v>
       </c>
       <c r="D29" t="n">
-        <v>62675.897185831</v>
+        <v>62675.8965277341</v>
       </c>
       <c r="E29" t="n">
-        <v>124690.757838817</v>
+        <v>124690.76302901</v>
       </c>
       <c r="F29" t="n">
-        <v>138634.719747938</v>
+        <v>138634.723454872</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>74986</v>
       </c>
       <c r="I29" t="n">
-        <v>24206.4790432484</v>
+        <v>24206.4835205892</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>109829.042121946</v>
+        <v>109829.04655226</v>
       </c>
       <c r="C30" t="n">
-        <v>85024.9974638402</v>
+        <v>85024.9992843258</v>
       </c>
       <c r="D30" t="n">
-        <v>72431.6936601202</v>
+        <v>72431.6935105065</v>
       </c>
       <c r="E30" t="n">
-        <v>135801.140968751</v>
+        <v>135801.144223595</v>
       </c>
       <c r="F30" t="n">
-        <v>149972.825005049</v>
+        <v>149972.825543552</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>82369</v>
       </c>
       <c r="I30" t="n">
-        <v>27460.0421219457</v>
+        <v>27460.04655226</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>128977.571229089</v>
+        <v>128977.573468495</v>
       </c>
       <c r="C31" t="n">
-        <v>103292.336430317</v>
+        <v>103292.338752544</v>
       </c>
       <c r="D31" t="n">
-        <v>90174.363124334</v>
+        <v>90174.3640319079</v>
       </c>
       <c r="E31" t="n">
-        <v>155721.823756635</v>
+        <v>155721.820901273</v>
       </c>
       <c r="F31" t="n">
-        <v>170267.785427368</v>
+        <v>170267.777496806</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>95012</v>
       </c>
       <c r="I31" t="n">
-        <v>33965.5712290885</v>
+        <v>33965.5734684947</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>146912.493586398</v>
+        <v>146912.493014681</v>
       </c>
       <c r="C32" t="n">
-        <v>120498.648448682</v>
+        <v>120498.651204841</v>
       </c>
       <c r="D32" t="n">
-        <v>106953.307678574</v>
+        <v>106953.310248372</v>
       </c>
       <c r="E32" t="n">
-        <v>174304.678565393</v>
+        <v>174304.668941363</v>
       </c>
       <c r="F32" t="n">
-        <v>189167.439166172</v>
+        <v>189167.422204488</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>103468</v>
       </c>
       <c r="I32" t="n">
-        <v>43444.493586398</v>
+        <v>43444.4930146806</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>145420.759215247</v>
+        <v>145420.758923921</v>
       </c>
       <c r="C33" t="n">
-        <v>119064.526375371</v>
+        <v>119064.529123912</v>
       </c>
       <c r="D33" t="n">
-        <v>105552.790308197</v>
+        <v>105552.792750592</v>
       </c>
       <c r="E33" t="n">
-        <v>172761.423517205</v>
+        <v>172761.414509578</v>
       </c>
       <c r="F33" t="n">
-        <v>187598.90908117</v>
+        <v>187598.892925054</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>100107</v>
       </c>
       <c r="I33" t="n">
-        <v>45313.7592152474</v>
+        <v>45313.7589239213</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>119797.732687447</v>
+        <v>119797.73628784</v>
       </c>
       <c r="C34" t="n">
-        <v>94519.7340156408</v>
+        <v>94519.736266133</v>
       </c>
       <c r="D34" t="n">
-        <v>81643.0724510898</v>
+        <v>81643.07288552</v>
       </c>
       <c r="E34" t="n">
-        <v>146183.485425643</v>
+        <v>146183.485873278</v>
       </c>
       <c r="F34" t="n">
-        <v>160555.210039716</v>
+        <v>160555.206558861</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>76490</v>
       </c>
       <c r="I34" t="n">
-        <v>43307.7326874465</v>
+        <v>43307.73628784</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>109989.676934663</v>
+        <v>109989.681818406</v>
       </c>
       <c r="C35" t="n">
-        <v>85177.7047070918</v>
+        <v>85177.7069755329</v>
       </c>
       <c r="D35" t="n">
-        <v>72579.6374701867</v>
+        <v>72579.6377544439</v>
       </c>
       <c r="E35" t="n">
-        <v>135968.661599711</v>
+        <v>135968.66529725</v>
       </c>
       <c r="F35" t="n">
-        <v>150143.666407964</v>
+        <v>150143.66737952</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>61743</v>
       </c>
       <c r="I35" t="n">
-        <v>48246.6769346628</v>
+        <v>48246.6818184064</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>111304.428954143</v>
+        <v>111304.434111823</v>
       </c>
       <c r="C36" t="n">
-        <v>86427.9470140213</v>
+        <v>86427.9496852952</v>
       </c>
       <c r="D36" t="n">
-        <v>73791.149036411</v>
+        <v>73791.1497140956</v>
       </c>
       <c r="E36" t="n">
-        <v>137339.488937334</v>
+        <v>137339.492671817</v>
       </c>
       <c r="F36" t="n">
-        <v>151541.548525935</v>
+        <v>151541.54938401</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>50972</v>
       </c>
       <c r="I36" t="n">
-        <v>60332.4289541427</v>
+        <v>60332.434111823</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>146175.371055912</v>
+        <v>146175.372747299</v>
       </c>
       <c r="C37" t="n">
-        <v>119789.934780847</v>
+        <v>119789.939575455</v>
       </c>
       <c r="D37" t="n">
-        <v>106261.160531133</v>
+        <v>106261.165032029</v>
       </c>
       <c r="E37" t="n">
-        <v>173542.144460902</v>
+        <v>173542.137339464</v>
       </c>
       <c r="F37" t="n">
-        <v>188392.436661766</v>
+        <v>188392.422332135</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>29010</v>
       </c>
       <c r="I37" t="n">
-        <v>117165.371055912</v>
+        <v>117165.372747299</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>158098.060518403</v>
+        <v>158098.059825655</v>
       </c>
       <c r="C38" t="n">
-        <v>130211.734275021</v>
+        <v>130211.739329557</v>
       </c>
       <c r="D38" t="n">
-        <v>115901.223698663</v>
+        <v>115901.229468194</v>
       </c>
       <c r="E38" t="n">
-        <v>186996.819733289</v>
+        <v>186996.806747092</v>
       </c>
       <c r="F38" t="n">
-        <v>202670.35758046</v>
+        <v>202670.3352416</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>42950</v>
       </c>
       <c r="I38" t="n">
-        <v>115148.060518403</v>
+        <v>115148.059825655</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>140290.299180373</v>
+        <v>140290.299169367</v>
       </c>
       <c r="C39" t="n">
-        <v>112575.768128302</v>
+        <v>112575.770356355</v>
       </c>
       <c r="D39" t="n">
-        <v>98416.5419658776</v>
+        <v>98416.5433985873</v>
       </c>
       <c r="E39" t="n">
-        <v>169137.90221185</v>
+        <v>169137.893769491</v>
       </c>
       <c r="F39" t="n">
-        <v>184824.792767216</v>
+        <v>184824.77703981</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>96292</v>
       </c>
       <c r="I39" t="n">
-        <v>43998.299180373</v>
+        <v>43998.299169367</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>129602.432980456</v>
+        <v>129602.435110041</v>
       </c>
       <c r="C40" t="n">
-        <v>102294.6656744</v>
+        <v>102294.668038584</v>
       </c>
       <c r="D40" t="n">
-        <v>88383.1114385513</v>
+        <v>88383.1123049889</v>
       </c>
       <c r="E40" t="n">
-        <v>158105.099663777</v>
+        <v>158105.095849597</v>
       </c>
       <c r="F40" t="n">
-        <v>173629.292767399</v>
+        <v>173629.283086712</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>122646</v>
       </c>
       <c r="I40" t="n">
-        <v>6956.43298045629</v>
+        <v>6956.43511004148</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>104489.559290042</v>
+        <v>104489.564751449</v>
       </c>
       <c r="C41" t="n">
-        <v>78440.323178177</v>
+        <v>78440.3253940896</v>
       </c>
       <c r="D41" t="n">
-        <v>65286.9931389909</v>
+        <v>65286.9934722017</v>
       </c>
       <c r="E41" t="n">
-        <v>131901.684246138</v>
+        <v>131901.689206157</v>
       </c>
       <c r="F41" t="n">
-        <v>146900.635040284</v>
+        <v>146900.637450438</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>103060</v>
       </c>
       <c r="I41" t="n">
-        <v>1429.55929004181</v>
+        <v>1429.56475144892</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>115231.784047932</v>
+        <v>115231.789136094</v>
       </c>
       <c r="C42" t="n">
-        <v>88615.1241177811</v>
+        <v>88615.127131523</v>
       </c>
       <c r="D42" t="n">
-        <v>75117.4174624241</v>
+        <v>75117.4184521674</v>
       </c>
       <c r="E42" t="n">
-        <v>143132.186127933</v>
+        <v>143132.188532625</v>
       </c>
       <c r="F42" t="n">
-        <v>158365.379416291</v>
+        <v>158365.377893013</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>115898</v>
       </c>
       <c r="I42" t="n">
-        <v>-666.215952068116</v>
+        <v>-666.210863905915</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>134551.667191113</v>
+        <v>134551.669351979</v>
       </c>
       <c r="C43" t="n">
-        <v>107021.192787628</v>
+        <v>107021.196043714</v>
       </c>
       <c r="D43" t="n">
-        <v>92977.4427467749</v>
+        <v>92977.4447752501</v>
       </c>
       <c r="E43" t="n">
-        <v>163250.055730783</v>
+        <v>163250.050827275</v>
       </c>
       <c r="F43" t="n">
-        <v>178869.278296283</v>
+        <v>178869.266873857</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>108442</v>
       </c>
       <c r="I43" t="n">
-        <v>26109.6671911135</v>
+        <v>26109.6693519794</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>152629.672119617</v>
+        <v>152629.67069069</v>
       </c>
       <c r="C44" t="n">
-        <v>124341.357423071</v>
+        <v>124341.360718543</v>
       </c>
       <c r="D44" t="n">
-        <v>109851.518264587</v>
+        <v>109851.521753983</v>
       </c>
       <c r="E44" t="n">
-        <v>181999.608086087</v>
+        <v>181999.595256974</v>
       </c>
       <c r="F44" t="n">
-        <v>197946.485041498</v>
+        <v>197946.463238212</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>119375</v>
       </c>
       <c r="I44" t="n">
-        <v>33254.6721196169</v>
+        <v>33254.6706906898</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>151126.581955059</v>
+        <v>151126.580873492</v>
       </c>
       <c r="C45" t="n">
-        <v>122898.258133905</v>
+        <v>122898.261458389</v>
       </c>
       <c r="D45" t="n">
-        <v>108443.533817282</v>
+        <v>108443.537200595</v>
       </c>
       <c r="E45" t="n">
-        <v>180443.059917792</v>
+        <v>180443.047802024</v>
       </c>
       <c r="F45" t="n">
-        <v>196363.767353294</v>
+        <v>196363.746467854</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>125319</v>
       </c>
       <c r="I45" t="n">
-        <v>25807.5819550594</v>
+        <v>25807.5808734919</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>125292.392694234</v>
+        <v>125292.39658748</v>
       </c>
       <c r="C46" t="n">
-        <v>98184.6296461899</v>
+        <v>98184.6329839719</v>
       </c>
       <c r="D46" t="n">
-        <v>84392.2609808702</v>
+        <v>84392.2625799514</v>
       </c>
       <c r="E46" t="n">
-        <v>153619.956068061</v>
+        <v>153619.955051384</v>
       </c>
       <c r="F46" t="n">
-        <v>169059.31828671</v>
+        <v>169059.312005167</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>102559</v>
       </c>
       <c r="I46" t="n">
-        <v>22733.3926942336</v>
+        <v>22733.39658748</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>115393.95136927</v>
+        <v>115393.956909772</v>
       </c>
       <c r="C47" t="n">
-        <v>88769.0850825923</v>
+        <v>88769.0885467996</v>
       </c>
       <c r="D47" t="n">
-        <v>75266.4299157907</v>
+        <v>75266.4313436286</v>
       </c>
       <c r="E47" t="n">
-        <v>143301.457555504</v>
+        <v>143301.460398232</v>
       </c>
       <c r="F47" t="n">
-        <v>158538.070370356</v>
+        <v>158538.069273668</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>90744</v>
       </c>
       <c r="I47" t="n">
-        <v>24649.9513692703</v>
+        <v>24649.9569097716</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>116721.180486963</v>
+        <v>116721.186259164</v>
       </c>
       <c r="C48" t="n">
-        <v>90029.5254049241</v>
+        <v>90029.5292648421</v>
       </c>
       <c r="D48" t="n">
-        <v>76486.6281586114</v>
+        <v>76486.6299905557</v>
       </c>
       <c r="E48" t="n">
-        <v>144686.548117634</v>
+        <v>144686.550921442</v>
       </c>
       <c r="F48" t="n">
-        <v>159951.024114025</v>
+        <v>159951.022811214</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>73835</v>
       </c>
       <c r="I48" t="n">
-        <v>42886.1804869634</v>
+        <v>42886.186259164</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>151886.949746122</v>
+        <v>151886.950629594</v>
       </c>
       <c r="C49" t="n">
-        <v>123628.217886231</v>
+        <v>123628.223251102</v>
       </c>
       <c r="D49" t="n">
-        <v>109155.690335473</v>
+        <v>109155.695777216</v>
       </c>
       <c r="E49" t="n">
-        <v>181230.517648686</v>
+        <v>181230.507389001</v>
       </c>
       <c r="F49" t="n">
-        <v>197164.484511385</v>
+        <v>197164.465415824</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>67461</v>
       </c>
       <c r="I49" t="n">
-        <v>84425.9497461217</v>
+        <v>84425.9506295942</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
